--- a/Texts/Глоссарий/Названия и описания статусов.xlsx
+++ b/Texts/Глоссарий/Названия и описания статусов.xlsx
@@ -1986,19 +1986,7 @@
     <t>Узы Судьбы</t>
   </si>
   <si>
-    <t>Под действем Уз Судьбы, Покемон
-получает тот же урон, что и
-тот, кто его нанёс. Статус длится
-ограниченное количество ходов.</t>
-  </si>
-  <si>
     <t>Ôèú Òôäûáú</t>
-  </si>
-  <si>
-    <t>Ðïä äåêòóâåí Ôè Òôäûáú, Ðïëåíïî
-ðïìôœàåó óïó çå ôñïî, œóï é
-óïó, ëóï åãï îàîæò. Òóàóôò äìéóòÿ
-ïãñàîéœåîîïå ëïìéœåòóâï öïäïâ.</t>
   </si>
   <si>
     <t>Powered Up</t>
@@ -2935,6 +2923,18 @@
   </si>
   <si>
     <t>(Описание)</t>
+  </si>
+  <si>
+    <t>Под действием Уз Судьбы, Покемон
+получает тот же урон, что и
+тот, кто его нанёс. Статус длится
+ограниченное количество ходов.</t>
+  </si>
+  <si>
+    <t>Ðïä äåêòóâéåí Ôè Òôäûáú, Ðïëåíïî
+ðïìôœàåó óïó çå ôñïî, œóï é
+óïó, ëóï åãï îàîæò. Òóàóôò äìéóòÿ
+ïãñàîéœåîîïå ëïìéœåòóâï öïäïâ.</t>
   </si>
 </sst>
 </file>
@@ -3375,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B3" s="9">
         <f>B2+1</f>
@@ -3455,10 +3455,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -5570,7 +5570,7 @@
         <v>406</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -5583,10 +5583,10 @@
         <v>405</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>407</v>
+        <v>603</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>409</v>
+        <v>604</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -5595,13 +5595,13 @@
         <v>13693</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="E140" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="112.2" x14ac:dyDescent="0.3">
@@ -5611,13 +5611,13 @@
         <v>13694</v>
       </c>
       <c r="C141" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D141" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="E141" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -5626,13 +5626,13 @@
         <v>13695</v>
       </c>
       <c r="C142" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="E142" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="51" x14ac:dyDescent="0.3">
@@ -5642,13 +5642,13 @@
         <v>13696</v>
       </c>
       <c r="C143" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="E143" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -5657,13 +5657,13 @@
         <v>13697</v>
       </c>
       <c r="C144" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
@@ -5673,13 +5673,13 @@
         <v>13698</v>
       </c>
       <c r="C145" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="E145" s="10" t="s">
         <v>425</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -5688,13 +5688,13 @@
         <v>13699</v>
       </c>
       <c r="C146" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="E146" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -5704,13 +5704,13 @@
         <v>13700</v>
       </c>
       <c r="C147" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="E147" s="10" t="s">
         <v>431</v>
-      </c>
-      <c r="E147" s="10" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -5719,13 +5719,13 @@
         <v>13701</v>
       </c>
       <c r="C148" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="E148" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -5734,13 +5734,13 @@
         <v>13702</v>
       </c>
       <c r="C149" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="E149" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -5765,13 +5765,13 @@
         <v>13705</v>
       </c>
       <c r="C152" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="E152" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
@@ -5781,13 +5781,13 @@
         <v>13706</v>
       </c>
       <c r="C153" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="E153" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -5796,13 +5796,13 @@
         <v>13707</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="81.599999999999994" x14ac:dyDescent="0.3">
@@ -5812,13 +5812,13 @@
         <v>13708</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D155" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E155" s="10" t="s">
         <v>449</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -5843,13 +5843,13 @@
         <v>13711</v>
       </c>
       <c r="C158" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="E158" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -5859,13 +5859,13 @@
         <v>13712</v>
       </c>
       <c r="C159" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D159" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="E159" s="10" t="s">
         <v>455</v>
-      </c>
-      <c r="E159" s="10" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -5874,13 +5874,13 @@
         <v>13713</v>
       </c>
       <c r="C160" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="E160" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -5890,13 +5890,13 @@
         <v>13714</v>
       </c>
       <c r="C161" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D161" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="E161" s="10" t="s">
         <v>461</v>
-      </c>
-      <c r="E161" s="10" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -5905,13 +5905,13 @@
         <v>13715</v>
       </c>
       <c r="C162" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="E162" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="81.599999999999994" x14ac:dyDescent="0.3">
@@ -5921,13 +5921,13 @@
         <v>13716</v>
       </c>
       <c r="C163" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D163" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="E163" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -5936,13 +5936,13 @@
         <v>13717</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -5952,13 +5952,13 @@
         <v>13718</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -5967,13 +5967,13 @@
         <v>13719</v>
       </c>
       <c r="C166" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="E166" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -5983,13 +5983,13 @@
         <v>13720</v>
       </c>
       <c r="C167" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="D167" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="E167" s="10" t="s">
         <v>474</v>
-      </c>
-      <c r="E167" s="10" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -5999,13 +5999,13 @@
         <v>13721</v>
       </c>
       <c r="C168" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E168" s="12" t="s">
         <v>477</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="E168" s="12" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -6035,13 +6035,13 @@
         <v>13724</v>
       </c>
       <c r="C171" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="E171" s="10" t="s">
         <v>480</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="E171" s="10" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -6050,13 +6050,13 @@
         <v>13725</v>
       </c>
       <c r="C172" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="E172" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6066,13 +6066,13 @@
         <v>13726</v>
       </c>
       <c r="C173" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D173" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="E173" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="E173" s="10" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -6081,13 +6081,13 @@
         <v>13727</v>
       </c>
       <c r="C174" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="E174" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="112.2" x14ac:dyDescent="0.3">
@@ -6097,13 +6097,13 @@
         <v>13728</v>
       </c>
       <c r="C175" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D175" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="D175" s="10" t="s">
+      <c r="E175" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -6112,13 +6112,13 @@
         <v>13729</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D176" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E176" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6128,13 +6128,13 @@
         <v>13730</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D177" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E177" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="E177" s="10" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -6164,13 +6164,13 @@
         <v>13733</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6180,13 +6180,13 @@
         <v>13734</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D181" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E181" s="10" t="s">
         <v>504</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -6215,13 +6215,13 @@
         <v>13737</v>
       </c>
       <c r="C184" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="E184" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6231,13 +6231,13 @@
         <v>13738</v>
       </c>
       <c r="C185" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D185" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="E185" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="E185" s="10" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -6266,13 +6266,13 @@
         <v>13741</v>
       </c>
       <c r="C188" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="E188" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6282,13 +6282,13 @@
         <v>13742</v>
       </c>
       <c r="C189" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D189" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="D189" s="10" t="s">
+      <c r="E189" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="E189" s="10" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -6297,13 +6297,13 @@
         <v>13743</v>
       </c>
       <c r="C190" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D190" s="4" t="s">
+      <c r="E190" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="132.6" x14ac:dyDescent="0.3">
@@ -6313,13 +6313,13 @@
         <v>13744</v>
       </c>
       <c r="C191" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D191" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="D191" s="10" t="s">
+      <c r="E191" s="10" t="s">
         <v>522</v>
-      </c>
-      <c r="E191" s="10" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -6328,13 +6328,13 @@
         <v>13745</v>
       </c>
       <c r="C192" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="E192" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6344,13 +6344,13 @@
         <v>13746</v>
       </c>
       <c r="C193" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D193" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="E193" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="E193" s="10" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -6359,13 +6359,13 @@
         <v>13747</v>
       </c>
       <c r="C194" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="E194" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6375,13 +6375,13 @@
         <v>13748</v>
       </c>
       <c r="C195" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D195" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="E195" s="10" t="s">
         <v>534</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -6390,13 +6390,13 @@
         <v>13749</v>
       </c>
       <c r="C196" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="E196" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6406,13 +6406,13 @@
         <v>13750</v>
       </c>
       <c r="C197" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="D197" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="E197" s="10" t="s">
         <v>540</v>
-      </c>
-      <c r="E197" s="10" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -6421,13 +6421,13 @@
         <v>13751</v>
       </c>
       <c r="C198" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="E198" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6437,13 +6437,13 @@
         <v>13752</v>
       </c>
       <c r="C199" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="D199" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="E199" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="E199" s="10" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -6452,13 +6452,13 @@
         <v>13753</v>
       </c>
       <c r="C200" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="D200" s="4" t="s">
+      <c r="E200" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="51" x14ac:dyDescent="0.3">
@@ -6468,13 +6468,13 @@
         <v>13754</v>
       </c>
       <c r="C201" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="D201" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="E201" s="10" t="s">
         <v>552</v>
-      </c>
-      <c r="E201" s="10" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -6483,13 +6483,13 @@
         <v>13755</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -6499,13 +6499,13 @@
         <v>13756</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -6514,13 +6514,13 @@
         <v>13757</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D204" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E204" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6530,13 +6530,13 @@
         <v>13758</v>
       </c>
       <c r="C205" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="D205" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="E205" s="10" t="s">
         <v>564</v>
-      </c>
-      <c r="E205" s="10" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -6546,13 +6546,13 @@
         <v>13759</v>
       </c>
       <c r="C206" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="D206" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="D206" s="12" t="s">
+      <c r="E206" s="12" t="s">
         <v>569</v>
-      </c>
-      <c r="E206" s="12" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6562,13 +6562,13 @@
         <v>13760</v>
       </c>
       <c r="C207" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D207" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="D207" s="10" t="s">
+      <c r="E207" s="10" t="s">
         <v>570</v>
-      </c>
-      <c r="E207" s="10" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -6577,13 +6577,13 @@
         <v>13761</v>
       </c>
       <c r="C208" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E208" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="81.599999999999994" x14ac:dyDescent="0.3">
@@ -6593,13 +6593,13 @@
         <v>13762</v>
       </c>
       <c r="C209" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="E209" s="10" t="s">
         <v>576</v>
-      </c>
-      <c r="D209" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="E209" s="10" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -6608,13 +6608,13 @@
         <v>13763</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D210" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E210" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="71.400000000000006" x14ac:dyDescent="0.3">
@@ -6624,13 +6624,13 @@
         <v>13764</v>
       </c>
       <c r="C211" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="D211" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="E211" s="10" t="s">
         <v>583</v>
-      </c>
-      <c r="E211" s="10" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -6640,13 +6640,13 @@
         <v>13765</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
@@ -6656,13 +6656,13 @@
         <v>13766</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D213" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="E213" s="10" t="s">
         <v>588</v>
-      </c>
-      <c r="E213" s="10" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -6672,13 +6672,13 @@
         <v>13767</v>
       </c>
       <c r="C214" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="D214" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="D214" s="12" t="s">
+      <c r="E214" s="12" t="s">
         <v>593</v>
-      </c>
-      <c r="E214" s="12" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6688,13 +6688,13 @@
         <v>13768</v>
       </c>
       <c r="C215" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="D215" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="D215" s="10" t="s">
+      <c r="E215" s="10" t="s">
         <v>594</v>
-      </c>
-      <c r="E215" s="10" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -6704,13 +6704,13 @@
         <v>13769</v>
       </c>
       <c r="C216" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="D216" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="D216" s="12" t="s">
-        <v>599</v>
-      </c>
       <c r="E216" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6720,13 +6720,13 @@
         <v>13770</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
